--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbekmezian/Documents/mycode/projects/DNAC_Utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E19EED-529B-714B-B839-2A6C33637E95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE8CC3-822B-AB49-B4F3-D9628648B281}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="860" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{2DCD80CE-93A4-A048-BA4F-5B1599A40A02}"/>
+    <workbookView xWindow="960" yWindow="860" windowWidth="30140" windowHeight="16700" xr2:uid="{2DCD80CE-93A4-A048-BA4F-5B1599A40A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Credentials" sheetId="3" r:id="rId3"/>
     <sheet name="SiteSettings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Level</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>POOL_Area2_Building1_FIAB_GUEST_VN_Wired_Guest</t>
+  </si>
+  <si>
+    <t>Type (CLI, SNMPv2 RO, SNMPv2 RW)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Username or Community</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Enable Password</t>
   </si>
 </sst>
 </file>
@@ -605,15 +620,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82F1E7-4201-F546-8D7C-4F2671AD7BA9}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,13 +759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461B1C34-C018-3443-9CDE-36DEFA6D593E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -1103,12 +1118,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CAA024-C729-DD43-8F77-66FF67CB0065}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
